--- a/biology/Zoologie/Calao_bicorne/Calao_bicorne.xlsx
+++ b/biology/Zoologie/Calao_bicorne/Calao_bicorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buceros bicornis
 Le Calao bicorne (Buceros bicornis) est une espèce d'oiseau appartenant à la famille des Bucerotidae.
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur la côte ouest de l'Inde, au pied de l'Himalaya et en Asie du Sud-Est.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calao bicorne vit dans la partie supérieure (canopée et arbres émergents) des forêts pluviales tropicales.
 </t>
@@ -575,12 +591,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle est un peu plus grand que la femelle, la sous-espèce buceros bicornis homrai mesure près de 1 mètre et peut atteindre jusqu’à 1,30 m pour une envergure de 1,5m à 1,80 m et un poids de 2 à 4 kg. 
-Le plumage est blanc et noir : le cou, le poitrail, des parties de la tête ainsi que les bandes transversales sur les ailes sont blanches. La queue est également blanche avec une bande transversale noire dans sa partie centrale. Le très grand bec incurvé vers le bas (jusqu’à 30 cm chez le mâle, 25 chez la femelle), même s'il n'est pas très lourd, est spectaculaire par le casque également jaune doré qui l'orne, servant de chambre de résonance qui amplifie les bruits nasaux émis par l'oiseau mais aussi d'indicateur de son développement sexuel. Le casque a pu avoir à l'origine pour fonction de soutenir leur long bec incurvé. Peu à peu, il aurait grandi, selon la théorie du handicap : les femelles choisissent les mâles avec un gros casque car survivre avec un tel handicap (il réduit leur capacité de voir les oiseaux de proie voler au-dessus d'eux et leur champ de vision binoculaire pour apprécier les reliefs et les profondeurs quand ils bondissent de branche en branche pour aller picorer des fruits, il ajoute également un poids inutile au bec) est signe de bonne santé[1].
+Le plumage est blanc et noir : le cou, le poitrail, des parties de la tête ainsi que les bandes transversales sur les ailes sont blanches. La queue est également blanche avec une bande transversale noire dans sa partie centrale. Le très grand bec incurvé vers le bas (jusqu’à 30 cm chez le mâle, 25 chez la femelle), même s'il n'est pas très lourd, est spectaculaire par le casque également jaune doré qui l'orne, servant de chambre de résonance qui amplifie les bruits nasaux émis par l'oiseau mais aussi d'indicateur de son développement sexuel. Le casque a pu avoir à l'origine pour fonction de soutenir leur long bec incurvé. Peu à peu, il aurait grandi, selon la théorie du handicap : les femelles choisissent les mâles avec un gros casque car survivre avec un tel handicap (il réduit leur capacité de voir les oiseaux de proie voler au-dessus d'eux et leur champ de vision binoculaire pour apprécier les reliefs et les profondeurs quand ils bondissent de branche en branche pour aller picorer des fruits, il ajoute également un poids inutile au bec) est signe de bonne santé.
 Le cri puissant et le vol lourd et bruyant sont caractéristiques. Le calao corne, aboie et mugit dans les branches supérieures d'un arbre pour appeler ses congénères.
-Hormis la taille et le casque, le dimorphisme sexuel est peu marqué. Fait inhabituel, les cils de la paupière supérieure sont longs et correspondent à des ailes amincies. Ils serviraient comme chez l'homme à se protéger de la poussière et constitueraient un moyen de communication important (ils accentueraient la couleur des yeux des jeunes élevés dans des fentes d'arbres, seuls éléments qui peuvent voir les parents, et leur donneraient une indication sur les besoins nutritionnels des petits)[2]. Chez le mâle, l'iris est rouge-brun et la peau qui entoure l'œil est noire alors que chez la femelle, l'iris est blanc et la peau circumorbitale est rose à rouge vif ; le mâle a un casque qui est noir aux extrémités tandis que la femelle a un casque qui est teinté de rouge à ses extrémités[3].
+Hormis la taille et le casque, le dimorphisme sexuel est peu marqué. Fait inhabituel, les cils de la paupière supérieure sont longs et correspondent à des ailes amincies. Ils serviraient comme chez l'homme à se protéger de la poussière et constitueraient un moyen de communication important (ils accentueraient la couleur des yeux des jeunes élevés dans des fentes d'arbres, seuls éléments qui peuvent voir les parents, et leur donneraient une indication sur les besoins nutritionnels des petits). Chez le mâle, l'iris est rouge-brun et la peau qui entoure l'œil est noire alors que chez la femelle, l'iris est blanc et la peau circumorbitale est rose à rouge vif ; le mâle a un casque qui est noir aux extrémités tandis que la femelle a un casque qui est teinté de rouge à ses extrémités.
 			Mâle.
 			Mâle.
 			Femelle.
@@ -615,7 +633,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 2 sous-espèces :
 Buceros bicornis bicornis Linnaeus, 1758 - Thaïlande et Malaisie ;
@@ -647,7 +667,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Calao bicorne est surtout frugivore.
 L'alimentation comporte essentiellement des fruits, en particulier les figues riches en sucre, qui permettent au calao bicorne de se passer d'eau mais leur fermentation peut le rendre euphorique comme l'a observé Gustav Schneider à Sumatra ; et aussi des fruits de la famille des Lauraceae et des Myristicaceae comme les Persea, Alseodaphne et Myristica (qui inclut la noix de muscade).
@@ -682,12 +704,14 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité sexuelle est atteinte à 4 ans. 
 Une fois formé, le couple reste fidèle à vie et niche dans la couronne des arbres entre 15 et 25 mètres de haut. Le couple chante en duo pendant la saison d'accouplement.
-La période de reproduction se déroule de janvier à avril. La femelle pond de 2 à 4 œufs dans un creux d'arbre mais en général un seul jeune survit après l'éclosion. Après la ponte, la femelle mure complètement le nid avec une bouillie faite de nourriture, de particules de bois et d'excréments afin d'empêcher l'intrusion de prédateurs (singes et serpents). Elle mue complètement, formant ainsi un lit de plumes pour les petits à leur naissance[4]. Seule une petite ouverture permet au mâle d'alimenter la femelle et, après l'éclosion, après 31 jours d'incubation, la progéniture. Quand celle-ci à environ 14 jours, les parents démolissent le mur et la femelle sort du trou. L'ouverture est alors de nouveau murée et les parents continuent de nourrir les oisillons. Quand la progéniture est couverte de plumes et a atteint l'âge de voler, vers 16 semaines, la femelle ouvre de nouveau l'entrée du nid à coups de bec. La progéniture doit alors se hâter d'apprendre à voler car elle n'a aucun entraînement.
-Le couple de calao bicorne utilise souvent la même cavité plusieurs années de suite[5].
+La période de reproduction se déroule de janvier à avril. La femelle pond de 2 à 4 œufs dans un creux d'arbre mais en général un seul jeune survit après l'éclosion. Après la ponte, la femelle mure complètement le nid avec une bouillie faite de nourriture, de particules de bois et d'excréments afin d'empêcher l'intrusion de prédateurs (singes et serpents). Elle mue complètement, formant ainsi un lit de plumes pour les petits à leur naissance. Seule une petite ouverture permet au mâle d'alimenter la femelle et, après l'éclosion, après 31 jours d'incubation, la progéniture. Quand celle-ci à environ 14 jours, les parents démolissent le mur et la femelle sort du trou. L'ouverture est alors de nouveau murée et les parents continuent de nourrir les oisillons. Quand la progéniture est couverte de plumes et a atteint l'âge de voler, vers 16 semaines, la femelle ouvre de nouveau l'entrée du nid à coups de bec. La progéniture doit alors se hâter d'apprendre à voler car elle n'a aucun entraînement.
+Le couple de calao bicorne utilise souvent la même cavité plusieurs années de suite.
 </t>
         </is>
       </c>
